--- a/results/escherichia_coli/Crp_ARs_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/escherichia_coli/Crp_ARs_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0-deletion_crp_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0_Presence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar1_Presence" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar1_Ar2_Presence" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar2_Presence" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_crp_Presence" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-deletion_crp_Presence" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0-deletion_crp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar1_Ar2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_Ar2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glyc_e5.0-deletion_crp" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-deletion_crp" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,26 +464,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.743160623032255e-65</v>
+        <v>8.423320890395651e-142</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4637096774193548</v>
+        <v>0.9148148148148149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4637096774193548</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -491,37 +491,37 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.537532589205352e-41</v>
+        <v>0.0001402491531219699</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4382022471910113</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4382022471910113</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.214064673251623e-13</v>
+        <v>0.008335455319778447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.2951807228915663</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6206896551724138</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -529,51 +529,51 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.561156328988835e-13</v>
+        <v>0.02201256616276823</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.316546762589928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3766233766233766</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.097021277059031e-08</v>
+        <v>0.10192793581473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="E6" t="n">
-        <v>0.52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.567548304624426e-05</v>
+        <v>0.1173391489395261</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2345679012345679</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2345679012345679</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
@@ -582,302 +582,302 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.899529722724879e-05</v>
+        <v>0.6382785827584925</v>
       </c>
       <c r="D8" t="n">
-        <v>0.375</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.375</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Methylglyoxal Metabolism</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6765030304061197</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="E9" t="n">
         <v>9</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Methylglyoxal Metabolism</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0001544144011434226</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0008099757683569929</v>
+        <v>0.7342385881422487</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1818181818181818</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.001073700863728651</v>
+        <v>0.8236482116724632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.375</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.375</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.001142972922932491</v>
+        <v>0.8573517805659123</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2647058823529412</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001214633416296177</v>
+        <v>0.9786566641474659</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.125</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5714285714285714</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001222928905972664</v>
+        <v>0.9789533997731202</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2439024390243902</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002217013879641629</v>
+        <v>0.9810136843640537</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2916666666666667</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.028166313697155</v>
+        <v>0.9810885796809899</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1716417910447761</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2666666666666667</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.06093616672659034</v>
+        <v>0.9815731573852462</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1509433962264151</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.08478265353019675</v>
+        <v>0.9840409586446236</v>
       </c>
       <c r="D18" t="n">
-        <v>0.111731843575419</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>0.111731843575419</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.09095766143505747</v>
+        <v>0.9854792200830607</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1538461538461539</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1157906781783113</v>
+        <v>0.9929587173569124</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3459164767952623</v>
+        <v>0.9947305347569655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1333333333333333</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.479338966869305</v>
+        <v>0.9947611067020425</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08928571428571429</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.507168826950971</v>
+        <v>0.9977077163676705</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E23" t="n">
-        <v>0.09090909090909091</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -886,121 +886,121 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5706142207239444</v>
+        <v>0.9993970503423856</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5706142207239444</v>
+        <v>0.9996197290734026</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5902877181860964</v>
+        <v>0.9998493607887281</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08333333333333333</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7188556386715563</v>
+        <v>0.9999999999965536</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06666666666666667</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8160150626415039</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8689915095887217</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04166666666666666</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1010,16 +1010,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1029,12 +1029,12 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1048,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1067,16 +1067,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1086,16 +1086,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1105,35 +1105,35 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Murein Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>15</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1143,16 +1143,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1162,7 +1162,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Glyoxylate Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,406 +1246,406 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.648437633714513e-46</v>
+        <v>3.30368329318453e-103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5168539325842697</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5168539325842697</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.979768253674869e-36</v>
+        <v>2.894605500417482e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3951612903225806</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3951612903225806</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.863944302056362e-16</v>
+        <v>1.962907322152122e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4141414141414141</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.987331693397725e-15</v>
+        <v>5.724470511057206e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.4227642276422764</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7241379310344828</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.572949144615654e-15</v>
+        <v>0.01359016489588847</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.3644578313253012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6153846153846154</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.035963663125677e-13</v>
+        <v>0.01800770925468781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4285714285714285</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.030674599816747e-10</v>
+        <v>0.02208967223111294</v>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E8" t="n">
-        <v>0.625</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.817831702138979e-09</v>
+        <v>0.2333831028437806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.214011278065888e-09</v>
+        <v>0.4161878786488863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4150943396226415</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.226743117820075e-07</v>
+        <v>0.6108269542555151</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4411764705882353</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.175509101482678e-07</v>
+        <v>0.7497021471994694</v>
       </c>
       <c r="D12" t="n">
-        <v>0.625</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="E12" t="n">
-        <v>0.625</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9.889800568772451e-06</v>
+        <v>0.8218485538382772</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4583333333333333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001191413541976459</v>
+        <v>0.8662834758628754</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2857142857142857</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0003106560647557538</v>
+        <v>0.8781066634364301</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1899441340782123</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1899441340782123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0005162400144677976</v>
+        <v>0.8924614579546006</v>
       </c>
       <c r="D16" t="n">
-        <v>0.625</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.625</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.003154865929176509</v>
+        <v>0.9648179154524217</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5714285714285714</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.009125180605526141</v>
+        <v>0.9648179154524217</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2916666666666667</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01466790626447688</v>
+        <v>0.9919202336235943</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0184698012367696</v>
+        <v>0.9951444867965804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1851851851851852</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.06277634044236582</v>
+        <v>0.9962521919045556</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.06277634044236582</v>
+        <v>0.9962521919045556</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1615,89 +1653,89 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1286209464498413</v>
+        <v>0.9996471665590552</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1707317073170732</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1481487574036817</v>
+        <v>0.9997273190523857</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1976555012857966</v>
+        <v>0.9997399945909459</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4737125696802454</v>
+        <v>0.9998126050496676</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4737125696802454</v>
+        <v>0.9999922676881627</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1333333333333333</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -1706,121 +1744,121 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6678582820449401</v>
+        <v>0.9999972229287047</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7025667357898274</v>
+        <v>0.9999999869886534</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1552511415525114</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09090909090909091</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7307761792740793</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08333333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7336555936441764</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08333333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8730525841120578</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06060606060606061</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9118303728560504</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04545454545454546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1830,16 +1868,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1849,16 +1887,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1868,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1887,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1906,7 +1944,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Glyoxylate Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1920,7 +1996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1952,26 +2028,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.054810515686055e-79</v>
+        <v>4.421745590472603e-140</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5120967741935484</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5120967741935484</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1979,189 +2055,189 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.130728433668362e-58</v>
+        <v>1.510225108419233e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5280898876404494</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5280898876404494</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.176947701801722e-07</v>
+        <v>0.0004297194453596746</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4482758620689655</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.960627596922884e-06</v>
+        <v>0.06384941227949582</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2597402597402597</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Methylglyoxal Metabolism</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1424782751121352</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="E6" t="n">
         <v>9</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Methylglyoxal Metabolism</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6.930168126729027e-06</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.314801421859691e-05</v>
+        <v>0.1815637548832971</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9.179274586071742e-05</v>
+        <v>0.2830446458547347</v>
       </c>
       <c r="D8" t="n">
-        <v>0.36</v>
+        <v>0.2611940298507462</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0003102858868432188</v>
+        <v>0.5661183938382612</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2682926829268293</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.001255853318471766</v>
+        <v>0.6618938723877679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.005289172716995281</v>
+        <v>0.7601363682888351</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1728395061728395</v>
+        <v>0.2158273381294964</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1728395061728395</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.02898630189582186</v>
+        <v>0.8516276813859652</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2666666666666667</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2169,184 +2245,184 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02898630189582186</v>
+        <v>0.9032713864451329</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.03280361934055227</v>
+        <v>0.9392312684296911</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1229050279329609</v>
+        <v>0.15</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1229050279329609</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0411943212239761</v>
+        <v>0.9603242060473043</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2083333333333333</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0411943212239761</v>
+        <v>0.9777153790491926</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2083333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1376592613133574</v>
+        <v>0.9801367079594845</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1320754716981132</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1819884023936016</v>
+        <v>0.9842840475075543</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1111111111111111</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2889491766985736</v>
+        <v>0.9921568582829146</v>
       </c>
       <c r="D19" t="n">
-        <v>0.25</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E19" t="n">
-        <v>0.25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3059671198501999</v>
+        <v>0.9940843341480589</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1071428571428571</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Unassigned</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9991610165208129</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="E21" t="n">
         <v>26</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Threonine and Lysine Metabolism</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.4949742589737243</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5338322436114306</v>
+        <v>0.9997015729619079</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08823529411764706</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -2355,140 +2431,140 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5739350551286841</v>
+        <v>0.9999589629182344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5952430855081338</v>
+        <v>0.9999999999699329</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08333333333333333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7221129430722446</v>
+        <v>0.9999999999999272</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06910569105691057</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06666666666666667</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7221129430722446</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06666666666666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7647817587847531</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06060606060606061</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8403002573263345</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05128205128205128</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05128205128205128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8714144149333278</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04166666666666666</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -2498,16 +2574,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2517,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2536,16 +2612,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -2555,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2574,16 +2650,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2593,35 +2669,35 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Murein Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>15</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2631,16 +2707,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2650,7 +2726,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Alanine and Aspartate Metabolism</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Purine and Pyrimidine Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2664,7 +2778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2696,349 +2810,349 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.071116205781581e-53</v>
+        <v>5.156694525759382e-111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5449438202247191</v>
+        <v>0.9148148148148149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5449438202247191</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.66725539684179e-38</v>
+        <v>8.293789192808725e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3951612903225806</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3951612903225806</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.419448653117984e-18</v>
+        <v>2.434084033852752e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4343434343434344</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4343434343434344</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.35904311178643e-12</v>
+        <v>0.004522133415723242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4025974025974026</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.265331611559335e-10</v>
+        <v>0.008931546351005664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.625</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.05008577030907e-09</v>
+        <v>0.0823810654100347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.75</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.576291024360888e-08</v>
+        <v>0.169672830763458</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.3453237410071943</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5172413793103449</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.229512070763041e-07</v>
+        <v>0.3492006358031054</v>
       </c>
       <c r="D9" t="n">
-        <v>0.308641975308642</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E9" t="n">
-        <v>0.308641975308642</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.291533106591123e-06</v>
+        <v>0.5286535832006811</v>
       </c>
       <c r="D10" t="n">
-        <v>0.48</v>
+        <v>0.3059701492537313</v>
       </c>
       <c r="E10" t="n">
-        <v>0.48</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.410058121090219e-06</v>
+        <v>0.5518835557250116</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4583333333333333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.05182034487278e-05</v>
+        <v>0.8098577961799015</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3823529411764706</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.129643806200334e-05</v>
+        <v>0.852850009297485</v>
       </c>
       <c r="D13" t="n">
-        <v>0.358974358974359</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E13" t="n">
-        <v>0.358974358974359</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.298540312917317e-05</v>
+        <v>0.8880363414254675</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3018867924528302</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3018867924528302</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0004184562716718923</v>
+        <v>0.9588559567460806</v>
       </c>
       <c r="D15" t="n">
-        <v>0.625</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E15" t="n">
-        <v>0.625</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.002672585355210596</v>
+        <v>0.9626222554054418</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5714285714285714</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.002715646081212218</v>
+        <v>0.9626222554054418</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1675977653631285</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1675977653631285</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.007175937736873386</v>
+        <v>0.9740795360911864</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2916666666666667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01256823052087751</v>
+        <v>0.9875411426661007</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3046,288 +3160,288 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01734629202637749</v>
+        <v>0.9932344938550524</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2195121951219512</v>
+        <v>0.15</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2195121951219512</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.04236175495959377</v>
+        <v>0.9940156824332756</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1895510626788453</v>
+        <v>0.9943944842181242</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4498136983580612</v>
+        <v>0.9951829012496661</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1333333333333333</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4498136983580612</v>
+        <v>0.995853606357038</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4498136983580612</v>
+        <v>0.996586596680025</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1333333333333333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6507226349688232</v>
+        <v>0.9975395382179739</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6507226349688232</v>
+        <v>0.9997800794034517</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1</v>
+        <v>0.2259036144578313</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6535160676266205</v>
+        <v>0.9999945428982456</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09090909090909091</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.685642057323761</v>
+        <v>0.9999998200013378</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09090909090909091</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7069409234484327</v>
+        <v>0.9999999986925516</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1415525114155251</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08333333333333333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.717077851591385</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08333333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.793782508553974</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06666666666666667</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8242230091454742</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07142857142857142</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.9014948315905579</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04545454545454546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3337,16 +3451,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3356,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3375,16 +3489,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3394,7 +3508,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Citric Acid Cycle</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Glyoxylate Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3440,154 +3592,154 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.432869247846559e-57</v>
+        <v>1.140109568648872e-90</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.8962962962962963</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.328317918804337e-44</v>
+        <v>2.872792106836804e-20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5224719101123596</v>
+        <v>0.6138211382113821</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5224719101123596</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.747276752489139e-18</v>
+        <v>7.05504946879151e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4545454545454545</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.651667554090734e-17</v>
+        <v>0.01017912121511055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7931034482758621</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.328142120875637e-10</v>
+        <v>0.03802812009522743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3896103896103896</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.935873145630679e-09</v>
+        <v>0.111485418516833</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.625</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7.266165269739525e-08</v>
+        <v>0.1816684849393554</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6875</v>
+        <v>0.3805970149253731</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6875</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.580308384081039e-07</v>
+        <v>0.2439519468689803</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5416666666666666</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -3596,231 +3748,231 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.513649855103161e-07</v>
+        <v>0.2953738554455435</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4411764705882353</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4411764705882353</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.33574072426041e-06</v>
+        <v>0.7150890427374128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.3283132530120482</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.390892415460907e-06</v>
+        <v>0.8251312136861628</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.2957746478873239</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3396226415094339</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.802689228378e-05</v>
+        <v>0.8597085380832756</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217877094972067</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="E13" t="n">
-        <v>0.217877094972067</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0001303657592291446</v>
+        <v>0.8674269151837508</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2592592592592592</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001785172695903997</v>
+        <v>0.9052029129716261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002476890908542993</v>
+        <v>0.9181090529397643</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2857142857142857</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0006915534908015856</v>
+        <v>0.951336485104593</v>
       </c>
       <c r="D17" t="n">
-        <v>0.625</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="E17" t="n">
-        <v>0.625</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.003973990885213129</v>
+        <v>0.9659965541170347</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5714285714285714</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.008318195436484569</v>
+        <v>0.9766290817718625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2564102564102564</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01795824881059192</v>
+        <v>0.9766290817718625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01816740779655144</v>
+        <v>0.9797089754281872</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3828,146 +3980,146 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01916834998929914</v>
+        <v>0.983311252512148</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.07568515729001649</v>
+        <v>0.9846191392857556</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2666666666666667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.07568515729001649</v>
+        <v>0.9924408236528927</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2666666666666667</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2095246529421022</v>
+        <v>0.9933422542559512</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2996764274320757</v>
+        <v>0.9981068376313398</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1463414634146341</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3752228115849584</v>
+        <v>0.9999343956659771</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5079625480458106</v>
+        <v>0.9999409328799063</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1333333333333333</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6917336115361767</v>
+        <v>0.9999881140582081</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -3976,121 +4128,121 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6917336115361767</v>
+        <v>0.9999999738345144</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7260017389850236</v>
+        <v>0.9999999989658969</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1689497716894977</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09090909090909091</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7564677361026411</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08333333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.7630695810945035</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08333333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8951693690993939</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06060606060606061</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9251949756189329</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04545454545454546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4100,16 +4252,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4119,16 +4271,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4138,7 +4290,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Citric Acid Cycle</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Glyoxylate Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4152,7 +4342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4184,140 +4374,140 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.382913689009329e-64</v>
+        <v>1.542762247843541e-109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5955056179775281</v>
+        <v>0.8925925925925926</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5955056179775281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.839128953508156e-46</v>
+        <v>5.006909301323983e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4314516129032258</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4314516129032258</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8.881137523421447e-18</v>
+        <v>2.841712776730748e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4242424242424243</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.113603975634931e-17</v>
+        <v>0.002213965569725085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7586206896551724</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.350418099750294e-13</v>
+        <v>0.02251780874098684</v>
       </c>
       <c r="D6" t="n">
-        <v>0.875</v>
+        <v>0.3669064748201439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.875</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.669295292695763e-11</v>
+        <v>0.0249745138504267</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3766233766233766</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.998438803254587e-07</v>
+        <v>0.02669485719944242</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.3656716417910448</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4325,113 +4515,113 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.115966332799386e-06</v>
+        <v>0.1557257831139747</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4583333333333333</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.484109650603493e-05</v>
+        <v>0.7808524846736916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3333333333333333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.297065125664552e-05</v>
+        <v>0.8027342214536475</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2469135802469136</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2469135802469136</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0001252731964989168</v>
+        <v>0.8692149594999741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2830188679245283</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2830188679245283</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0004090671289989695</v>
+        <v>0.8916110767767084</v>
       </c>
       <c r="D13" t="n">
-        <v>0.625</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E13" t="n">
-        <v>0.625</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.002625086192830643</v>
+        <v>0.9067628898882211</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5714285714285714</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4439,208 +4629,208 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.008900055066074785</v>
+        <v>0.9240872624105981</v>
       </c>
       <c r="D15" t="n">
-        <v>0.28</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E15" t="n">
-        <v>0.28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01235967752966381</v>
+        <v>0.9421495243064902</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01577979232858352</v>
+        <v>0.9528025619089269</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2352941176470588</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02866179032257402</v>
+        <v>0.9664080394006037</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1452513966480447</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1452513966480447</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.08239718149649382</v>
+        <v>0.981556170121164</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2083333333333333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1298491097946942</v>
+        <v>0.9913936553729811</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1886955947859666</v>
+        <v>0.9938794115867795</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2169673415636965</v>
+        <v>0.9938794115867795</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1463414634146341</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1463414634146341</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4472691730104634</v>
+        <v>0.9958657686535597</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4472691730104634</v>
+        <v>0.9994393557596911</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1333333333333333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6488733867315162</v>
+        <v>0.9998269345619019</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4648,51 +4838,51 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6656751546620547</v>
+        <v>0.9999064776121489</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08928571428571429</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6838105265425674</v>
+        <v>0.9999853282797085</v>
       </c>
       <c r="D27" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09090909090909091</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7043391448450179</v>
+        <v>0.9999974385831861</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08333333333333333</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -4701,93 +4891,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7152789074723787</v>
+        <v>0.9999999999970594</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1050228310502283</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08333333333333333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7921415269983619</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.06666666666666667</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7921415269983619</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.06666666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.8538548103087062</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.06060606060606061</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9003419680190624</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04545454545454546</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -4796,7 +4986,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4806,16 +4996,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -4825,12 +5015,12 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4844,16 +5034,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4863,26 +5053,64 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Intracellular demand</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Glyoxylate Metabolism</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +5124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4928,292 +5156,292 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.717958044498011e-43</v>
+        <v>1.05124405099641e-99</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4831460674157304</v>
+        <v>0.8962962962962963</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4831460674157304</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.603409793826497e-27</v>
+        <v>1.267765566050844e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3306451612903226</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3306451612903226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.142061461631906e-16</v>
+        <v>1.27044899991688e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.4564102564102564</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7241379310344828</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.62186459322253e-16</v>
+        <v>5.328223269894363e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4415584415584415</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4415584415584415</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.148114728850519e-11</v>
+        <v>0.002230471321706058</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6666666666666666</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.390918684883992e-10</v>
+        <v>0.02074253290000851</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5294117647058824</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.667219399792389e-10</v>
+        <v>0.02457851104871873</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.073192424853973e-10</v>
+        <v>0.2854371618589737</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4150943396226415</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4150943396226415</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.059396361200164e-09</v>
+        <v>0.3755133810182232</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5833333333333334</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.885246965915779e-08</v>
+        <v>0.5105155117517108</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.3162650602409638</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5416666666666666</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.766767416001232e-07</v>
+        <v>0.6270698854110642</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2122905027932961</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2122905027932961</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.257170860990121e-05</v>
+        <v>0.8306781693368839</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2469135802469136</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2469135802469136</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.000327779810271318</v>
+        <v>0.8679467129954133</v>
       </c>
       <c r="D14" t="n">
-        <v>0.625</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E14" t="n">
-        <v>0.625</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0007753341591480321</v>
+        <v>0.8974389395953164</v>
       </c>
       <c r="D15" t="n">
-        <v>0.202020202020202</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.202020202020202</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001105439857623132</v>
+        <v>0.9499324064408338</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2682926829268293</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -5221,260 +5449,260 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001690706477062682</v>
+        <v>0.9661652579835458</v>
       </c>
       <c r="D17" t="n">
-        <v>0.35</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E17" t="n">
-        <v>0.35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.002203400487596144</v>
+        <v>0.9672340382664009</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5714285714285714</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.002445912098604248</v>
+        <v>0.9776086531898209</v>
       </c>
       <c r="D19" t="n">
-        <v>0.375</v>
+        <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.375</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01003398396637729</v>
+        <v>0.984756288702613</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3333333333333333</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01049303210702425</v>
+        <v>0.9860881887315187</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4</v>
+        <v>0.175</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.04667328150052651</v>
+        <v>0.9966719333471276</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.155739216400457</v>
+        <v>0.9966719333471276</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1428571428571428</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1805461434282231</v>
+        <v>0.9997224950770435</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3285621879317522</v>
+        <v>0.9997709946074996</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4228407770277218</v>
+        <v>0.9998438721533364</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4228407770277218</v>
+        <v>0.9999505596550222</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1333333333333333</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6175787170724332</v>
+        <v>0.9999689879324146</v>
       </c>
       <c r="D28" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09090909090909091</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6308609720566027</v>
+        <v>0.9999999865360371</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.1598173515981735</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6308609720566027</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -5483,98 +5711,98 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6659208321254948</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09090909090909091</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6787250541217235</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08333333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6976583530735728</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08333333333333333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.7293345996737315</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07692307692307693</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.8887280447628081</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.04545454545454546</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -5588,16 +5816,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -5607,16 +5835,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -5626,7 +5854,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Glyoxylate Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5640,7 +5906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5672,97 +5938,97 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.934378942066418e-45</v>
+        <v>1.516938559150185e-95</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4395161290322581</v>
+        <v>0.8851851851851852</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4395161290322581</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.995380615970906e-35</v>
+        <v>2.837859523922272e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4606741573033708</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4606741573033708</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.207687426108966e-19</v>
+        <v>6.818347894173022e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.443089430894309</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4545454545454545</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.205172435124384e-15</v>
+        <v>4.701410337956097e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7241379310344828</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.04286166634458e-10</v>
+        <v>0.001517434457822342</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.3885542168674699</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3766233766233766</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
@@ -5771,60 +6037,60 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.179498996018201e-09</v>
+        <v>0.02457851104871873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E7" t="n">
-        <v>0.625</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.179498996018201e-09</v>
+        <v>0.05406463017432878</v>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.625</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.019996792290272e-09</v>
+        <v>0.1100289895809395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.345679012345679</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="E9" t="n">
-        <v>0.345679012345679</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -5832,51 +6098,51 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.251454997018466e-08</v>
+        <v>0.2092050477827788</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3962264150943396</v>
+        <v>0.3507462686567164</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3962264150943396</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.971815303856807e-07</v>
+        <v>0.5866731144039962</v>
       </c>
       <c r="D11" t="n">
-        <v>0.625</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="E11" t="n">
-        <v>0.625</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.785422334738953e-06</v>
+        <v>0.7607369972161643</v>
       </c>
       <c r="D12" t="n">
-        <v>0.48</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E12" t="n">
-        <v>0.48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -5885,169 +6151,169 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.286189463611108e-05</v>
+        <v>0.8300745335093693</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4583333333333333</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.394608825898081e-05</v>
+        <v>0.8306781693368839</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3035714285714285</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3035714285714285</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0001071298031565725</v>
+        <v>0.8974389395953164</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2011173184357542</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2011173184357542</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0001187886621690877</v>
+        <v>0.9634346046515948</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3529411764705883</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Alanine and Aspartate Metabolism</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9672340382664009</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E17" t="n">
         <v>9</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Methylglyoxal Metabolism</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005865472640767732</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.625</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.00348954778970942</v>
+        <v>0.9776086531898209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5714285714285714</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01610725130447141</v>
+        <v>0.9928904754579391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01939016902118376</v>
+        <v>0.9966719333471276</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2307692307692308</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.06551541581068333</v>
+        <v>0.9966719333471276</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1951219512195122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -6056,169 +6322,169 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.06814433267478344</v>
+        <v>0.9987181589145658</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2666666666666667</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1590735085462774</v>
+        <v>0.9997224950770435</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2027531107025994</v>
+        <v>0.9997709946074996</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2118032947313939</v>
+        <v>0.9997801500219413</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3644698665309425</v>
+        <v>0.9997985632711606</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4885381532827949</v>
+        <v>0.9998438721533364</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4885381532827949</v>
+        <v>0.9999293781688959</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1333333333333333</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6782871019665229</v>
+        <v>0.9999999951174375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.1552511415525114</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7023282629910247</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09090909090909091</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -6227,55 +6493,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7128247161091315</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09090909090909091</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7436618715936032</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08333333333333333</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9345612947689615</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04166666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -6284,7 +6550,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -6294,16 +6560,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -6313,16 +6579,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -6332,16 +6598,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -6351,16 +6617,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -6370,7 +6636,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Glyoxylate Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
